--- a/lab5/benchmark data.xlsx
+++ b/lab5/benchmark data.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="13395" windowHeight="7740"/>
+    <workbookView xWindow="8160" yWindow="2440" windowWidth="35480" windowHeight="22200"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
   <si>
     <t>opt level</t>
   </si>
@@ -35,15 +41,37 @@
   <si>
     <t>opt 2</t>
   </si>
+  <si>
+    <t>Direct 02</t>
+  </si>
+  <si>
+    <t>Trans 02</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,13 +94,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -83,6 +131,756 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Helvetica"/>
+                <a:cs typeface="Helvetica"/>
+              </a:rPr>
+              <a:t>Peformance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Helvetica"/>
+                <a:cs typeface="Helvetica"/>
+              </a:rPr>
+              <a:t> Comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:ln w="19050" cmpd="sng"/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$24:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$24:$H$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>366.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>447.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>538.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>624.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>801.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1501.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transpose</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:ln w="19050" cmpd="sng"/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$24:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$24:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>259.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>311.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>402.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>797.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct 02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:ln w="19050" cmpd="sng"/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$24:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$24:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>515.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trans 02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:ln w="19050" cmpd="sng"/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$24:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$24:$K$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>172.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2138925096"/>
+        <c:axId val="-2138691272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2138925096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Helvetica"/>
+                    <a:cs typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Helvetica"/>
+                    <a:cs typeface="Helvetica"/>
+                  </a:rPr>
+                  <a:t>Number of Coefficients</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2138691272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2138691272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Helvetica"/>
+                    <a:cs typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Helvetica"/>
+                    <a:cs typeface="Helvetica"/>
+                  </a:rPr>
+                  <a:t>Cycles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2138925096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="201" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9205920" cy="5617065"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,15 +1170,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A5" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,7 +1192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -408,7 +1206,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -422,7 +1220,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -436,7 +1234,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -450,7 +1248,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -464,7 +1262,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -478,7 +1276,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -492,7 +1290,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -506,7 +1304,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -520,7 +1318,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -534,7 +1332,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -548,7 +1346,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -562,7 +1360,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -576,7 +1374,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -590,7 +1388,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -604,7 +1402,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -618,8 +1416,207 @@
         <v>172</v>
       </c>
     </row>
+    <row r="23" spans="1:11">
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>194</v>
+      </c>
+      <c r="I24">
+        <v>73</v>
+      </c>
+      <c r="J24">
+        <v>106</v>
+      </c>
+      <c r="K24">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>280</v>
+      </c>
+      <c r="I25">
+        <v>123</v>
+      </c>
+      <c r="J25">
+        <v>150</v>
+      </c>
+      <c r="K25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>366</v>
+      </c>
+      <c r="I26">
+        <v>170</v>
+      </c>
+      <c r="J26">
+        <v>174</v>
+      </c>
+      <c r="K26">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>447</v>
+      </c>
+      <c r="I27">
+        <v>217</v>
+      </c>
+      <c r="J27">
+        <v>196</v>
+      </c>
+      <c r="K27">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>538</v>
+      </c>
+      <c r="I28">
+        <v>259</v>
+      </c>
+      <c r="J28">
+        <v>218</v>
+      </c>
+      <c r="K28">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>624</v>
+      </c>
+      <c r="I29">
+        <v>311</v>
+      </c>
+      <c r="J29">
+        <v>245</v>
+      </c>
+      <c r="K29">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="G30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>801</v>
+      </c>
+      <c r="I31">
+        <v>402</v>
+      </c>
+      <c r="J31">
+        <v>309</v>
+      </c>
+      <c r="K31">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="G32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="7:11">
+      <c r="G33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="7:11">
+      <c r="G34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="7:11">
+      <c r="G35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="7:11">
+      <c r="G36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="7:11">
+      <c r="G37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="7:11">
+      <c r="G38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="7:11">
+      <c r="G39">
+        <v>16</v>
+      </c>
+      <c r="H39">
+        <v>1501</v>
+      </c>
+      <c r="I39">
+        <v>797</v>
+      </c>
+      <c r="J39">
+        <v>515</v>
+      </c>
+      <c r="K39">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -629,9 +1626,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -641,8 +1643,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>